--- a/Variables_desc.xlsx
+++ b/Variables_desc.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhhit-my.sharepoint.com/personal/sander_eriksen_student_nhh_no/Documents/NHH/8. semester/BAN440/Term paper/BAN440---Term-Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{4116DCFD-D732-4F76-8920-9CFBE3A3DCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0465315B-2053-4B62-9683-E12ED9DD5BBA}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{4116DCFD-D732-4F76-8920-9CFBE3A3DCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B69F3825-7C9D-4FC9-BFD7-E7EB0C959C78}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD34E695-8011-47AA-B92A-F01BD88B508A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{CD34E695-8011-47AA-B92A-F01BD88B508A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tab1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tab1(2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Reg" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Variable</t>
   </si>
@@ -63,9 +64,6 @@
     <t>The number of stores in the municipality</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Number of overnight stays per municipality per year (in thousands)</t>
   </si>
   <si>
@@ -121,13 +119,50 @@
   </si>
   <si>
     <t>Kartverket/SSB</t>
+  </si>
+  <si>
+    <t>Regression output from demand estimation</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Adjusted R2</t>
+  </si>
+  <si>
+    <t>Residual Std. Error</t>
+  </si>
+  <si>
+    <t>F Statistic</t>
+  </si>
+  <si>
+    <t>Variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +189,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -224,11 +279,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -238,7 +302,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +319,43 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,6 +519,61 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>346393</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A paper with numbers and letters&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FCC173-D294-EB6D-C804-FECFEBE32517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6681788" y="762001"/>
+          <a:ext cx="2084705" cy="2874010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -745,18 +900,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DA8F56-CAD9-4C70-A221-DF9047CE4116}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -771,7 +926,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -792,16 +947,16 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>24</v>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -813,11 +968,11 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -828,16 +983,16 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -849,11 +1004,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -864,16 +1019,16 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>26</v>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -885,11 +1040,11 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -900,16 +1055,16 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>26</v>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -921,11 +1076,11 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -936,16 +1091,16 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>26</v>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -957,11 +1112,11 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -972,16 +1127,16 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>26</v>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -993,11 +1148,11 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1008,16 +1163,16 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>27</v>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1029,11 +1184,11 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1044,16 +1199,16 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>25</v>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1065,11 +1220,11 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1080,16 +1235,16 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>26</v>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1101,11 +1256,11 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1116,16 +1271,16 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>26</v>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1137,7 +1292,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1152,11 +1307,11 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1167,11 +1322,11 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1182,11 +1337,11 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1197,11 +1352,11 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1212,11 +1367,11 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1227,11 +1382,11 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1242,11 +1397,11 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1257,7 +1412,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1272,7 +1427,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1287,7 +1442,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1302,7 +1457,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1317,7 +1472,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1332,7 +1487,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1347,7 +1502,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1362,7 +1517,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1377,7 +1532,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1392,7 +1547,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1407,7 +1562,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1422,7 +1577,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1452,14 +1607,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1474,15 +1629,15 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1"/>
@@ -1495,16 +1650,16 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>24</v>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1516,16 +1671,16 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1537,16 +1692,16 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1558,16 +1713,16 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1579,16 +1734,16 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>26</v>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1600,16 +1755,16 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1621,16 +1776,16 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>27</v>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1642,16 +1797,16 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>25</v>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1663,16 +1818,16 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>26</v>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1684,16 +1839,16 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>26</v>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1705,7 +1860,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1720,11 +1875,11 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1735,11 +1890,11 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1750,11 +1905,11 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1765,11 +1920,11 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1780,11 +1935,11 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1795,11 +1950,11 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1810,11 +1965,11 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1825,7 +1980,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1840,7 +1995,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1855,7 +2010,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1870,7 +2025,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1885,7 +2040,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1900,7 +2055,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1915,7 +2070,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1930,7 +2085,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1945,7 +2100,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1960,7 +2115,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1975,7 +2130,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1990,7 +2145,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2010,4 +2165,251 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114396FA-A120-4FC9-87AC-24D0DF705CCB}">
+  <dimension ref="B2:G22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="11"/>
+    <col min="2" max="2" width="17.3984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="4.06640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.73046875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="11"/>
+    <col min="7" max="7" width="8.265625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="2:7" ht="5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16">
+        <v>16.449000000000002</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.49</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="2:7" ht="5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16">
+        <v>-5.2640000000000002</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1.456</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:7" ht="5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16">
+        <v>0.246</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="16">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="2:7" ht="5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16">
+        <v>4.8849999999999998</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2.29</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:7" ht="5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
+        <v>-270.08499999999998</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="13">
+        <v>125.336</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16">
+        <v>237</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="19">
+        <v>0.99</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="19">
+        <v>0.99</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16">
+        <v>102.63800000000001</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="20">
+        <v>5683.3469999999998</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="22" spans="2:7" ht="5" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>